--- a/CC2.데이터 항목정의서.xlsx
+++ b/CC2.데이터 항목정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimji\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimji\Desktop\NH_Bigdata_Contest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31478174-7A3E-4249-BCFB-CFB313B6747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEEF721-48C1-4C41-B611-E291EBB2A97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1785" windowWidth="21585" windowHeight="13215" tabRatio="771" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15660" tabRatio="771" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터파일_기본정보(서식)" sheetId="1" r:id="rId1"/>
@@ -2148,7 +2148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="1" shapeId="0" xr:uid="{830E6A64-4AA2-4597-B188-9F28E26820DE}">
+    <comment ref="H23" authorId="1" shapeId="0" xr:uid="{830E6A64-4AA2-4597-B188-9F28E26820DE}">
       <text>
         <r>
           <rPr>
@@ -2176,7 +2176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H27" authorId="1" shapeId="0" xr:uid="{36A3A01D-305C-4BDF-BA59-130CCE0EDD1A}">
+    <comment ref="H28" authorId="1" shapeId="0" xr:uid="{36A3A01D-305C-4BDF-BA59-130CCE0EDD1A}">
       <text>
         <r>
           <rPr>
@@ -2576,7 +2576,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="633">
   <si>
     <t>번호</t>
   </si>
@@ -5001,15 +5001,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전체 고객 기준, 고객별 매도 매수 횟수 정규화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0~1 (float)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추후 hist_d 생성 이후, 삭제 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5053,6 +5045,22 @@
       </rPr>
       <t>채희 담당</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(매도 매수 횟수 / 마지막 매도일 - 첫 매수일) -&gt; 10분위로 나눠서 0~1 값으로 정규화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEST_BTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객별 선호 업종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iem_info 업종 참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5821,84 +5829,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5955,6 +5885,84 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7108,16 +7116,16 @@
       <c r="A1" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
       <c r="J1" s="6" t="s">
         <v>73</v>
       </c>
@@ -7130,16 +7138,16 @@
       <c r="A2" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="83">
+      <c r="B2" s="99">
         <v>1</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="85"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="101"/>
       <c r="J2" s="5" t="s">
         <v>66</v>
       </c>
@@ -7149,16 +7157,16 @@
       <c r="A3" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="105"/>
       <c r="J3" s="5" t="s">
         <v>66</v>
       </c>
@@ -7168,14 +7176,14 @@
       <c r="A4" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="98"/>
       <c r="J4" s="5" t="s">
         <v>66</v>
       </c>
@@ -7185,14 +7193,14 @@
       <c r="A5" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
       <c r="J5" s="5" t="s">
         <v>66</v>
       </c>
@@ -7202,14 +7210,14 @@
       <c r="A6" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="88"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="98"/>
       <c r="J6" s="5" t="s">
         <v>66</v>
       </c>
@@ -7219,14 +7227,14 @@
       <c r="A7" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="98"/>
       <c r="J7" s="5" t="s">
         <v>66</v>
       </c>
@@ -7236,14 +7244,14 @@
       <c r="A8" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="88"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="98"/>
       <c r="J8" s="5" t="s">
         <v>66</v>
       </c>
@@ -7253,14 +7261,14 @@
       <c r="A9" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="98"/>
       <c r="J9" s="5" t="s">
         <v>66</v>
       </c>
@@ -7270,14 +7278,14 @@
       <c r="A10" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="98"/>
       <c r="J10" s="5" t="s">
         <v>66</v>
       </c>
@@ -7287,14 +7295,14 @@
       <c r="A11" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="85"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="101"/>
       <c r="J11" s="5" t="s">
         <v>66</v>
       </c>
@@ -7304,14 +7312,14 @@
       <c r="A12" s="41" t="s">
         <v>458</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="98"/>
       <c r="J12" s="5" t="s">
         <v>459</v>
       </c>
@@ -7321,14 +7329,14 @@
       <c r="A13" s="47" t="s">
         <v>450</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="85"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="101"/>
       <c r="J13" s="5" t="s">
         <v>66</v>
       </c>
@@ -7338,14 +7346,14 @@
       <c r="A14" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="85"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="101"/>
       <c r="J14" s="5" t="s">
         <v>66</v>
       </c>
@@ -7355,14 +7363,14 @@
       <c r="A15" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="98"/>
       <c r="J15" s="5" t="s">
         <v>66</v>
       </c>
@@ -7372,14 +7380,14 @@
       <c r="A16" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="88"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="98"/>
       <c r="J16" s="5" t="s">
         <v>66</v>
       </c>
@@ -7389,14 +7397,14 @@
       <c r="A17" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="88"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="98"/>
       <c r="J17" s="5" t="s">
         <v>66</v>
       </c>
@@ -7406,14 +7414,14 @@
       <c r="A18" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="98"/>
       <c r="J18" s="5" t="s">
         <v>66</v>
       </c>
@@ -7423,21 +7431,21 @@
       <c r="A19" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="88"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="98"/>
       <c r="J19" s="5" t="s">
         <v>66</v>
       </c>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="106" t="s">
         <v>390</v>
       </c>
       <c r="B20" s="26" t="s">
@@ -7468,7 +7476,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="17">
         <v>1</v>
       </c>
@@ -7483,7 +7491,7 @@
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="17">
         <v>2</v>
       </c>
@@ -7498,7 +7506,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="78"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="17">
         <v>3</v>
       </c>
@@ -7513,7 +7521,7 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="78"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="17">
         <v>4</v>
       </c>
@@ -7528,7 +7536,7 @@
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="78"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="17">
         <v>5</v>
       </c>
@@ -7543,7 +7551,7 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="17">
         <v>6</v>
       </c>
@@ -7561,14 +7569,14 @@
       <c r="A27" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="82"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="114"/>
       <c r="J27" s="5"/>
       <c r="K27" s="10"/>
     </row>
@@ -7577,16 +7585,16 @@
       <c r="A29" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="91"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="111"/>
       <c r="J29" s="6" t="s">
         <v>73</v>
       </c>
@@ -7598,16 +7606,16 @@
       <c r="A30" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="83">
+      <c r="B30" s="99">
         <v>2</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="85"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="101"/>
       <c r="J30" s="5" t="s">
         <v>66</v>
       </c>
@@ -7617,16 +7625,16 @@
       <c r="A31" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="103" t="s">
         <v>393</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="94"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="105"/>
       <c r="J31" s="5" t="s">
         <v>66</v>
       </c>
@@ -7636,14 +7644,14 @@
       <c r="A32" s="47" t="s">
         <v>453</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="88"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="98"/>
       <c r="J32" s="5" t="s">
         <v>66</v>
       </c>
@@ -7653,14 +7661,14 @@
       <c r="A33" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="88"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="98"/>
       <c r="J33" s="5" t="s">
         <v>66</v>
       </c>
@@ -7670,14 +7678,14 @@
       <c r="A34" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="88"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="98"/>
       <c r="J34" s="5" t="s">
         <v>66</v>
       </c>
@@ -7687,14 +7695,14 @@
       <c r="A35" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="88"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="98"/>
       <c r="J35" s="5" t="s">
         <v>66</v>
       </c>
@@ -7704,14 +7712,14 @@
       <c r="A36" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="88"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="98"/>
       <c r="J36" s="5" t="s">
         <v>66</v>
       </c>
@@ -7721,14 +7729,14 @@
       <c r="A37" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="B37" s="86"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="88"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="98"/>
       <c r="J37" s="5" t="s">
         <v>66</v>
       </c>
@@ -7738,14 +7746,14 @@
       <c r="A38" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="88"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="98"/>
       <c r="J38" s="5" t="s">
         <v>66</v>
       </c>
@@ -7755,14 +7763,14 @@
       <c r="A39" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="B39" s="83"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="85"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="101"/>
       <c r="J39" s="5" t="s">
         <v>66</v>
       </c>
@@ -7772,14 +7780,14 @@
       <c r="A40" s="41" t="s">
         <v>458</v>
       </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="88"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="98"/>
       <c r="J40" s="5" t="s">
         <v>459</v>
       </c>
@@ -7789,14 +7797,14 @@
       <c r="A41" s="47" t="s">
         <v>450</v>
       </c>
-      <c r="B41" s="83"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="85"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="101"/>
       <c r="J41" s="5" t="s">
         <v>66</v>
       </c>
@@ -7806,14 +7814,14 @@
       <c r="A42" s="48" t="s">
         <v>457</v>
       </c>
-      <c r="B42" s="83"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="85"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="101"/>
       <c r="J42" s="5" t="s">
         <v>66</v>
       </c>
@@ -7823,14 +7831,14 @@
       <c r="A43" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="88"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="98"/>
       <c r="J43" s="5" t="s">
         <v>66</v>
       </c>
@@ -7840,14 +7848,14 @@
       <c r="A44" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="B44" s="86"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="88"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="98"/>
       <c r="J44" s="5" t="s">
         <v>66</v>
       </c>
@@ -7857,14 +7865,14 @@
       <c r="A45" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="86"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="88"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="98"/>
       <c r="J45" s="5" t="s">
         <v>66</v>
       </c>
@@ -7874,14 +7882,14 @@
       <c r="A46" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="B46" s="86"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="88"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="98"/>
       <c r="J46" s="5" t="s">
         <v>66</v>
       </c>
@@ -7891,21 +7899,21 @@
       <c r="A47" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="B47" s="86"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="88"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="98"/>
       <c r="J47" s="5" t="s">
         <v>66</v>
       </c>
       <c r="K47" s="10"/>
     </row>
     <row r="48" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="106" t="s">
         <v>390</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -7936,7 +7944,7 @@
       <c r="K48" s="10"/>
     </row>
     <row r="49" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
+      <c r="A49" s="107"/>
       <c r="B49" s="17">
         <v>1</v>
       </c>
@@ -7951,7 +7959,7 @@
       <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="78"/>
+      <c r="A50" s="107"/>
       <c r="B50" s="17">
         <v>2</v>
       </c>
@@ -7966,7 +7974,7 @@
       <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="78"/>
+      <c r="A51" s="107"/>
       <c r="B51" s="17">
         <v>3</v>
       </c>
@@ -7981,7 +7989,7 @@
       <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="78"/>
+      <c r="A52" s="107"/>
       <c r="B52" s="17">
         <v>4</v>
       </c>
@@ -7996,7 +8004,7 @@
       <c r="K52" s="10"/>
     </row>
     <row r="53" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="78"/>
+      <c r="A53" s="107"/>
       <c r="B53" s="17">
         <v>5</v>
       </c>
@@ -8011,7 +8019,7 @@
       <c r="K53" s="10"/>
     </row>
     <row r="54" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="79"/>
+      <c r="A54" s="108"/>
       <c r="B54" s="17">
         <v>6</v>
       </c>
@@ -8029,34 +8037,30 @@
       <c r="A55" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="82"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="114"/>
       <c r="J55" s="5"/>
       <c r="K55" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B42:I42"/>
     <mergeCell ref="A20:A26"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B37:I37"/>
@@ -8073,17 +8077,21 @@
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B27:I27"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8133,16 +8141,16 @@
       <c r="A1" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
       <c r="J1" s="63" t="s">
         <v>464</v>
       </c>
@@ -8154,16 +8162,16 @@
       <c r="A2" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="B2" s="83">
+      <c r="B2" s="99">
         <v>1</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="85"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="101"/>
       <c r="J2" s="5" t="s">
         <v>66</v>
       </c>
@@ -8175,16 +8183,16 @@
       <c r="A3" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="103" t="s">
         <v>469</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="105"/>
       <c r="J3" s="5" t="s">
         <v>66</v>
       </c>
@@ -8196,16 +8204,16 @@
       <c r="A4" s="64" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="96" t="s">
         <v>472</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="98"/>
       <c r="J4" s="5" t="s">
         <v>66</v>
       </c>
@@ -8217,16 +8225,16 @@
       <c r="A5" s="64" t="s">
         <v>474</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="96" t="s">
         <v>475</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
       <c r="J5" s="5" t="s">
         <v>66</v>
       </c>
@@ -8238,16 +8246,16 @@
       <c r="A6" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="96" t="s">
         <v>478</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="88"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="98"/>
       <c r="J6" s="5" t="s">
         <v>66</v>
       </c>
@@ -8259,16 +8267,16 @@
       <c r="A7" s="64" t="s">
         <v>480</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="96" t="s">
         <v>481</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="98"/>
       <c r="J7" s="5" t="s">
         <v>66</v>
       </c>
@@ -8280,16 +8288,16 @@
       <c r="A8" s="64" t="s">
         <v>483</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="88"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="98"/>
       <c r="J8" s="5" t="s">
         <v>66</v>
       </c>
@@ -8301,16 +8309,16 @@
       <c r="A9" s="64" t="s">
         <v>486</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="96" t="s">
         <v>487</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="98"/>
       <c r="J9" s="5" t="s">
         <v>66</v>
       </c>
@@ -8322,16 +8330,16 @@
       <c r="A10" s="64" t="s">
         <v>489</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="96" t="s">
         <v>490</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="98"/>
       <c r="J10" s="5" t="s">
         <v>66</v>
       </c>
@@ -8343,16 +8351,16 @@
       <c r="A11" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="99" t="s">
         <v>493</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="85"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="101"/>
       <c r="J11" s="5" t="s">
         <v>66</v>
       </c>
@@ -8364,16 +8372,16 @@
       <c r="A12" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="98"/>
       <c r="J12" s="5" t="s">
         <v>497</v>
       </c>
@@ -8385,16 +8393,16 @@
       <c r="A13" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="99" t="s">
         <v>500</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="85"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="101"/>
       <c r="J13" s="5" t="s">
         <v>66</v>
       </c>
@@ -8406,16 +8414,16 @@
       <c r="A14" s="64" t="s">
         <v>502</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="99" t="s">
         <v>500</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="85"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="101"/>
       <c r="J14" s="5" t="s">
         <v>66</v>
       </c>
@@ -8427,16 +8435,16 @@
       <c r="A15" s="64" t="s">
         <v>504</v>
       </c>
-      <c r="B15" s="86">
+      <c r="B15" s="96">
         <v>9</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="98"/>
       <c r="J15" s="5" t="s">
         <v>66</v>
       </c>
@@ -8448,16 +8456,16 @@
       <c r="A16" s="64" t="s">
         <v>506</v>
       </c>
-      <c r="B16" s="86">
+      <c r="B16" s="96">
         <v>21.7</v>
       </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="88"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="98"/>
       <c r="J16" s="5" t="s">
         <v>66</v>
       </c>
@@ -8469,16 +8477,16 @@
       <c r="A17" s="64" t="s">
         <v>508</v>
       </c>
-      <c r="B17" s="86">
+      <c r="B17" s="96">
         <v>3995</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="88"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="98"/>
       <c r="J17" s="5" t="s">
         <v>66</v>
       </c>
@@ -8490,16 +8498,16 @@
       <c r="A18" s="64" t="s">
         <v>510</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="98"/>
       <c r="J18" s="5" t="s">
         <v>66</v>
       </c>
@@ -8511,16 +8519,16 @@
       <c r="A19" s="64" t="s">
         <v>513</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="96" t="s">
         <v>514</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="88"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="98"/>
       <c r="J19" s="5" t="s">
         <v>66</v>
       </c>
@@ -8529,7 +8537,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="106" t="s">
         <v>516</v>
       </c>
       <c r="B20" s="64" t="s">
@@ -8562,7 +8570,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="17">
         <v>1</v>
       </c>
@@ -8591,7 +8599,7 @@
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="17">
         <v>2</v>
       </c>
@@ -8606,7 +8614,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="78"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="17">
         <v>3</v>
       </c>
@@ -8621,7 +8629,7 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="78"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="17">
         <v>4</v>
       </c>
@@ -8636,7 +8644,7 @@
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="78"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="17">
         <v>5</v>
       </c>
@@ -8651,7 +8659,7 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="17">
         <v>6</v>
       </c>
@@ -8669,14 +8677,14 @@
       <c r="A27" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="82"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="114"/>
       <c r="J27" s="5"/>
       <c r="K27" s="10"/>
     </row>
@@ -8685,16 +8693,16 @@
       <c r="A29" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="91"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="111"/>
       <c r="J29" s="63" t="s">
         <v>464</v>
       </c>
@@ -8706,16 +8714,16 @@
       <c r="A30" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="B30" s="83">
+      <c r="B30" s="99">
         <v>2</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="85"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="101"/>
       <c r="J30" s="5" t="s">
         <v>66</v>
       </c>
@@ -8727,16 +8735,16 @@
       <c r="A31" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="103" t="s">
         <v>531</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="94"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="105"/>
       <c r="J31" s="5" t="s">
         <v>66</v>
       </c>
@@ -8748,16 +8756,16 @@
       <c r="A32" s="64" t="s">
         <v>471</v>
       </c>
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="96" t="s">
         <v>533</v>
       </c>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="88"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="98"/>
       <c r="J32" s="5" t="s">
         <v>66</v>
       </c>
@@ -8769,16 +8777,16 @@
       <c r="A33" s="64" t="s">
         <v>474</v>
       </c>
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="96" t="s">
         <v>534</v>
       </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="88"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="98"/>
       <c r="J33" s="5" t="s">
         <v>66</v>
       </c>
@@ -8790,16 +8798,16 @@
       <c r="A34" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="96" t="s">
         <v>535</v>
       </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="88"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="98"/>
       <c r="J34" s="5" t="s">
         <v>66</v>
       </c>
@@ -8811,16 +8819,16 @@
       <c r="A35" s="64" t="s">
         <v>480</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="96" t="s">
         <v>533</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="88"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="98"/>
       <c r="J35" s="5" t="s">
         <v>66</v>
       </c>
@@ -8832,16 +8840,16 @@
       <c r="A36" s="64" t="s">
         <v>483</v>
       </c>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="96" t="s">
         <v>536</v>
       </c>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="88"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="98"/>
       <c r="J36" s="5" t="s">
         <v>66</v>
       </c>
@@ -8853,16 +8861,16 @@
       <c r="A37" s="64" t="s">
         <v>486</v>
       </c>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="96" t="s">
         <v>537</v>
       </c>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="88"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="98"/>
       <c r="J37" s="5" t="s">
         <v>66</v>
       </c>
@@ -8874,16 +8882,16 @@
       <c r="A38" s="64" t="s">
         <v>489</v>
       </c>
-      <c r="B38" s="86" t="s">
+      <c r="B38" s="96" t="s">
         <v>538</v>
       </c>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="88"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="98"/>
       <c r="J38" s="5" t="s">
         <v>66</v>
       </c>
@@ -8895,16 +8903,16 @@
       <c r="A39" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="99" t="s">
         <v>493</v>
       </c>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="85"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="101"/>
       <c r="J39" s="5" t="s">
         <v>66</v>
       </c>
@@ -8916,16 +8924,16 @@
       <c r="A40" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="B40" s="86" t="s">
+      <c r="B40" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="88"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="98"/>
       <c r="J40" s="5" t="s">
         <v>497</v>
       </c>
@@ -8937,16 +8945,16 @@
       <c r="A41" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="99" t="s">
         <v>500</v>
       </c>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="85"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="101"/>
       <c r="J41" s="5" t="s">
         <v>66</v>
       </c>
@@ -8958,16 +8966,16 @@
       <c r="A42" s="64" t="s">
         <v>502</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="99" t="s">
         <v>500</v>
       </c>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="85"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="101"/>
       <c r="J42" s="5" t="s">
         <v>66</v>
       </c>
@@ -8979,16 +8987,16 @@
       <c r="A43" s="64" t="s">
         <v>504</v>
       </c>
-      <c r="B43" s="86">
+      <c r="B43" s="96">
         <v>8</v>
       </c>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="88"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="98"/>
       <c r="J43" s="5" t="s">
         <v>66</v>
       </c>
@@ -9000,16 +9008,16 @@
       <c r="A44" s="64" t="s">
         <v>506</v>
       </c>
-      <c r="B44" s="86">
+      <c r="B44" s="96">
         <v>21.7</v>
       </c>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="88"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="98"/>
       <c r="J44" s="5" t="s">
         <v>66</v>
       </c>
@@ -9021,16 +9029,16 @@
       <c r="A45" s="64" t="s">
         <v>539</v>
       </c>
-      <c r="B45" s="86">
+      <c r="B45" s="96">
         <v>6000</v>
       </c>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="88"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="98"/>
       <c r="J45" s="5" t="s">
         <v>66</v>
       </c>
@@ -9042,16 +9050,16 @@
       <c r="A46" s="64" t="s">
         <v>510</v>
       </c>
-      <c r="B46" s="86" t="s">
+      <c r="B46" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="88"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="98"/>
       <c r="J46" s="5" t="s">
         <v>66</v>
       </c>
@@ -9063,16 +9071,16 @@
       <c r="A47" s="64" t="s">
         <v>513</v>
       </c>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="96" t="s">
         <v>514</v>
       </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="88"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="98"/>
       <c r="J47" s="5" t="s">
         <v>66</v>
       </c>
@@ -9081,7 +9089,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="106" t="s">
         <v>540</v>
       </c>
       <c r="B48" s="64" t="s">
@@ -9114,7 +9122,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="100.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
+      <c r="A49" s="107"/>
       <c r="B49" s="17">
         <v>1</v>
       </c>
@@ -9143,7 +9151,7 @@
       <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="78"/>
+      <c r="A50" s="107"/>
       <c r="B50" s="17">
         <v>2</v>
       </c>
@@ -9158,7 +9166,7 @@
       <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="78"/>
+      <c r="A51" s="107"/>
       <c r="B51" s="17">
         <v>3</v>
       </c>
@@ -9173,7 +9181,7 @@
       <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="78"/>
+      <c r="A52" s="107"/>
       <c r="B52" s="17">
         <v>4</v>
       </c>
@@ -9188,7 +9196,7 @@
       <c r="K52" s="10"/>
     </row>
     <row r="53" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="78"/>
+      <c r="A53" s="107"/>
       <c r="B53" s="17">
         <v>5</v>
       </c>
@@ -9203,7 +9211,7 @@
       <c r="K53" s="10"/>
     </row>
     <row r="54" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="79"/>
+      <c r="A54" s="108"/>
       <c r="B54" s="17">
         <v>6</v>
       </c>
@@ -9221,19 +9229,49 @@
       <c r="A55" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="82"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="114"/>
       <c r="J55" s="5"/>
       <c r="K55" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="B55:I55"/>
     <mergeCell ref="B38:I38"/>
@@ -9246,36 +9284,6 @@
     <mergeCell ref="B45:I45"/>
     <mergeCell ref="B46:I46"/>
     <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9304,10 +9312,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z304"/>
+  <dimension ref="A1:Z305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9316,9 +9324,9 @@
     <col min="2" max="2" width="18" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.875" style="11" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="11" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="108" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" style="109" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="107" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="82" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" style="83" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="81" customWidth="1"/>
     <col min="8" max="8" width="20.375" style="75" customWidth="1"/>
     <col min="9" max="9" width="17.125" style="10" customWidth="1"/>
     <col min="10" max="10" width="5.5" style="11" bestFit="1" customWidth="1"/>
@@ -9333,45 +9341,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="115" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96" t="s">
+      <c r="C1" s="115"/>
+      <c r="D1" s="115" t="s">
         <v>361</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96" t="s">
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96" t="s">
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
     </row>
     <row r="2" spans="1:26" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="96"/>
+      <c r="A2" s="115"/>
       <c r="B2" s="76" t="s">
         <v>69</v>
       </c>
@@ -9453,19 +9461,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="39"/>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="80" t="s">
         <v>599</v>
       </c>
       <c r="D3" s="39"/>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="77" t="s">
         <v>555</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="77" t="s">
         <v>564</v>
       </c>
-      <c r="G3" s="111"/>
+      <c r="G3" s="85"/>
       <c r="H3" s="74"/>
-      <c r="I3" s="115"/>
+      <c r="I3" s="89"/>
       <c r="J3" s="39"/>
       <c r="K3" s="66"/>
       <c r="L3" s="39"/>
@@ -9491,15 +9499,15 @@
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="79" t="s">
         <v>556</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="79" t="s">
         <v>565</v>
       </c>
-      <c r="G4" s="112"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="71"/>
-      <c r="I4" s="115"/>
+      <c r="I4" s="89"/>
       <c r="J4" s="39"/>
       <c r="K4" s="66"/>
       <c r="L4" s="39"/>
@@ -9525,15 +9533,15 @@
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="79" t="s">
         <v>557</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="79" t="s">
         <v>566</v>
       </c>
-      <c r="G5" s="112"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="71"/>
-      <c r="I5" s="115"/>
+      <c r="I5" s="89"/>
       <c r="J5" s="39"/>
       <c r="K5" s="66"/>
       <c r="L5" s="39"/>
@@ -9559,15 +9567,15 @@
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="79" t="s">
         <v>558</v>
       </c>
-      <c r="F6" s="105" t="s">
+      <c r="F6" s="79" t="s">
         <v>567</v>
       </c>
-      <c r="G6" s="112"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="69"/>
-      <c r="I6" s="115"/>
+      <c r="I6" s="89"/>
       <c r="J6" s="39"/>
       <c r="K6" s="66"/>
       <c r="L6" s="39"/>
@@ -9593,15 +9601,15 @@
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="79" t="s">
         <v>559</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="79" t="s">
         <v>568</v>
       </c>
-      <c r="G7" s="112"/>
+      <c r="G7" s="86"/>
       <c r="H7" s="74"/>
-      <c r="I7" s="115"/>
+      <c r="I7" s="89"/>
       <c r="J7" s="39"/>
       <c r="K7" s="66"/>
       <c r="L7" s="58"/>
@@ -9623,18 +9631,18 @@
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
-      <c r="E8" s="113" t="s">
+      <c r="E8" s="87" t="s">
         <v>560</v>
       </c>
-      <c r="F8" s="114" t="s">
+      <c r="F8" s="88" t="s">
         <v>569</v>
       </c>
-      <c r="G8" s="112"/>
-      <c r="H8" s="118" t="s">
+      <c r="G8" s="86"/>
+      <c r="H8" s="92" t="s">
         <v>554</v>
       </c>
       <c r="I8" s="72" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="66"/>
@@ -9659,18 +9667,18 @@
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="58"/>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="87" t="s">
         <v>561</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="88" t="s">
         <v>570</v>
       </c>
-      <c r="G9" s="112"/>
+      <c r="G9" s="86"/>
       <c r="H9" s="74" t="s">
         <v>554</v>
       </c>
-      <c r="I9" s="119" t="s">
-        <v>626</v>
+      <c r="I9" s="93" t="s">
+        <v>624</v>
       </c>
       <c r="J9" s="39"/>
       <c r="K9" s="66"/>
@@ -9695,18 +9703,18 @@
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
       <c r="D10" s="58"/>
-      <c r="E10" s="113" t="s">
+      <c r="E10" s="87" t="s">
         <v>562</v>
       </c>
-      <c r="F10" s="114" t="s">
+      <c r="F10" s="88" t="s">
         <v>571</v>
       </c>
-      <c r="G10" s="112"/>
+      <c r="G10" s="86"/>
       <c r="H10" s="74" t="s">
         <v>554</v>
       </c>
-      <c r="I10" s="119" t="s">
-        <v>626</v>
+      <c r="I10" s="93" t="s">
+        <v>624</v>
       </c>
       <c r="J10" s="39"/>
       <c r="K10" s="66"/>
@@ -9728,13 +9736,13 @@
       <c r="A11" s="20">
         <v>8</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="79" t="s">
         <v>563</v>
       </c>
-      <c r="F11" s="105" t="s">
+      <c r="F11" s="79" t="s">
         <v>572</v>
       </c>
-      <c r="G11" s="112"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="74"/>
       <c r="K11" s="66"/>
       <c r="M11" s="66"/>
@@ -9751,18 +9759,18 @@
       <c r="A12" s="20">
         <v>9</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="87" t="s">
         <v>617</v>
       </c>
-      <c r="F12" s="114" t="s">
+      <c r="F12" s="88" t="s">
         <v>573</v>
       </c>
-      <c r="G12" s="112"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="74" t="s">
         <v>554</v>
       </c>
-      <c r="I12" s="117" t="s">
-        <v>630</v>
+      <c r="I12" s="91" t="s">
+        <v>628</v>
       </c>
       <c r="K12" s="66"/>
       <c r="M12" s="66"/>
@@ -9789,10 +9797,10 @@
         <v>611</v>
       </c>
       <c r="H13" s="69" t="s">
-        <v>628</v>
-      </c>
-      <c r="I13" s="120" t="s">
-        <v>624</v>
+        <v>626</v>
+      </c>
+      <c r="I13" s="94" t="s">
+        <v>622</v>
       </c>
       <c r="K13" s="66"/>
       <c r="M13" s="66"/>
@@ -9817,10 +9825,10 @@
         <v>613</v>
       </c>
       <c r="H14" s="69" t="s">
+        <v>625</v>
+      </c>
+      <c r="I14" s="95" t="s">
         <v>627</v>
-      </c>
-      <c r="I14" s="121" t="s">
-        <v>629</v>
       </c>
       <c r="K14" s="66"/>
       <c r="M14" s="66"/>
@@ -9845,10 +9853,10 @@
         <v>619</v>
       </c>
       <c r="H15" s="69" t="s">
+        <v>625</v>
+      </c>
+      <c r="I15" s="95" t="s">
         <v>627</v>
-      </c>
-      <c r="I15" s="121" t="s">
-        <v>629</v>
       </c>
       <c r="K15" s="66"/>
       <c r="M15" s="66"/>
@@ -9861,23 +9869,21 @@
       <c r="Y15" s="39"/>
       <c r="Z15" s="39"/>
     </row>
-    <row r="16" spans="1:26" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="E16" s="70" t="s">
         <v>620</v>
       </c>
       <c r="F16" s="70" t="s">
+        <v>629</v>
+      </c>
+      <c r="G16" s="69" t="s">
         <v>621</v>
       </c>
-      <c r="G16" s="69" t="s">
-        <v>622</v>
-      </c>
       <c r="H16" s="69" t="s">
-        <v>627</v>
-      </c>
-      <c r="I16" s="121" t="s">
-        <v>623</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="I16" s="95"/>
       <c r="K16" s="66"/>
       <c r="M16" s="66"/>
       <c r="Q16" s="40"/>
@@ -9890,10 +9896,20 @@
       <c r="Z16" s="39"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
-        <v>11</v>
-      </c>
-      <c r="H17" s="74"/>
+      <c r="A17" s="20"/>
+      <c r="E17" s="70" t="s">
+        <v>630</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>631</v>
+      </c>
+      <c r="G17" s="69" t="s">
+        <v>632</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>625</v>
+      </c>
+      <c r="I17" s="95"/>
       <c r="K17" s="66"/>
       <c r="M17" s="66"/>
       <c r="Q17" s="40"/>
@@ -9907,19 +9923,9 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
-        <v>12</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="E18" s="103" t="s">
-        <v>555</v>
-      </c>
-      <c r="F18" s="103" t="s">
-        <v>579</v>
-      </c>
-      <c r="G18" s="111"/>
-      <c r="H18" s="71"/>
+        <v>11</v>
+      </c>
+      <c r="H18" s="74"/>
       <c r="K18" s="66"/>
       <c r="M18" s="66"/>
       <c r="Q18" s="40"/>
@@ -9933,16 +9939,19 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
-        <v>13</v>
-      </c>
-      <c r="E19" s="104" t="s">
-        <v>574</v>
-      </c>
-      <c r="F19" s="104" t="s">
-        <v>580</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="74"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>555</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>579</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="71"/>
       <c r="K19" s="66"/>
       <c r="M19" s="66"/>
       <c r="Q19" s="40"/>
@@ -9956,16 +9965,16 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
-        <v>14</v>
-      </c>
-      <c r="E20" s="104" t="s">
-        <v>575</v>
-      </c>
-      <c r="F20" s="104" t="s">
-        <v>581</v>
+        <v>13</v>
+      </c>
+      <c r="E20" s="78" t="s">
+        <v>574</v>
+      </c>
+      <c r="F20" s="78" t="s">
+        <v>580</v>
       </c>
       <c r="G20" s="20"/>
-      <c r="H20" s="69"/>
+      <c r="H20" s="74"/>
       <c r="K20" s="66"/>
       <c r="M20" s="66"/>
       <c r="Q20" s="40"/>
@@ -9979,16 +9988,16 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
-        <v>15</v>
-      </c>
-      <c r="E21" s="105" t="s">
-        <v>576</v>
-      </c>
-      <c r="F21" s="105" t="s">
-        <v>582</v>
-      </c>
-      <c r="G21" s="112"/>
-      <c r="H21" s="74"/>
+        <v>14</v>
+      </c>
+      <c r="E21" s="78" t="s">
+        <v>575</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>581</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="69"/>
       <c r="K21" s="66"/>
       <c r="M21" s="66"/>
       <c r="Q21" s="40"/>
@@ -10002,16 +10011,16 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
-        <v>16</v>
-      </c>
-      <c r="E22" s="104" t="s">
-        <v>577</v>
-      </c>
-      <c r="F22" s="104" t="s">
-        <v>583</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="71"/>
+        <v>15</v>
+      </c>
+      <c r="E22" s="79" t="s">
+        <v>576</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>582</v>
+      </c>
+      <c r="G22" s="86"/>
+      <c r="H22" s="74"/>
       <c r="K22" s="66"/>
       <c r="M22" s="66"/>
       <c r="Q22" s="40"/>
@@ -10025,16 +10034,16 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
-        <v>17</v>
-      </c>
-      <c r="E23" s="104" t="s">
-        <v>578</v>
-      </c>
-      <c r="F23" s="104" t="s">
-        <v>584</v>
+        <v>16</v>
+      </c>
+      <c r="E23" s="78" t="s">
+        <v>577</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>583</v>
       </c>
       <c r="G23" s="20"/>
-      <c r="H23" s="74"/>
+      <c r="H23" s="71"/>
       <c r="K23" s="66"/>
       <c r="M23" s="66"/>
       <c r="Q23" s="40"/>
@@ -10048,11 +10057,15 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
-        <v>18</v>
-      </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="72"/>
+        <v>17</v>
+      </c>
+      <c r="E24" s="78" t="s">
+        <v>578</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>584</v>
+      </c>
+      <c r="G24" s="20"/>
       <c r="H24" s="74"/>
       <c r="K24" s="66"/>
       <c r="M24" s="66"/>
@@ -10067,18 +10080,11 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
-        <v>19</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="E25" s="103" t="s">
-        <v>585</v>
-      </c>
-      <c r="F25" s="103" t="s">
-        <v>590</v>
-      </c>
-      <c r="G25" s="111"/>
+        <v>18</v>
+      </c>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="74"/>
       <c r="K25" s="66"/>
       <c r="M25" s="66"/>
@@ -10093,15 +10099,18 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
-        <v>20</v>
-      </c>
-      <c r="E26" s="104" t="s">
-        <v>586</v>
-      </c>
-      <c r="F26" s="104" t="s">
-        <v>591</v>
-      </c>
-      <c r="G26" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>585</v>
+      </c>
+      <c r="F26" s="77" t="s">
+        <v>590</v>
+      </c>
+      <c r="G26" s="85"/>
       <c r="H26" s="74"/>
       <c r="K26" s="66"/>
       <c r="M26" s="66"/>
@@ -10116,16 +10125,16 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
-        <v>21</v>
-      </c>
-      <c r="E27" s="104" t="s">
-        <v>587</v>
-      </c>
-      <c r="F27" s="104" t="s">
-        <v>592</v>
+        <v>20</v>
+      </c>
+      <c r="E27" s="78" t="s">
+        <v>586</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>591</v>
       </c>
       <c r="G27" s="20"/>
-      <c r="H27" s="71"/>
+      <c r="H27" s="74"/>
       <c r="K27" s="66"/>
       <c r="M27" s="66"/>
       <c r="Q27" s="40"/>
@@ -10139,16 +10148,16 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
-        <v>22</v>
-      </c>
-      <c r="E28" s="104" t="s">
-        <v>588</v>
-      </c>
-      <c r="F28" s="104" t="s">
-        <v>593</v>
+        <v>21</v>
+      </c>
+      <c r="E28" s="78" t="s">
+        <v>587</v>
+      </c>
+      <c r="F28" s="78" t="s">
+        <v>592</v>
       </c>
       <c r="G28" s="20"/>
-      <c r="H28" s="74"/>
+      <c r="H28" s="71"/>
       <c r="K28" s="66"/>
       <c r="M28" s="66"/>
       <c r="Q28" s="40"/>
@@ -10162,13 +10171,13 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
-        <v>23</v>
-      </c>
-      <c r="E29" s="104" t="s">
-        <v>589</v>
-      </c>
-      <c r="F29" s="104" t="s">
-        <v>594</v>
+        <v>22</v>
+      </c>
+      <c r="E29" s="78" t="s">
+        <v>588</v>
+      </c>
+      <c r="F29" s="78" t="s">
+        <v>593</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="74"/>
@@ -10185,11 +10194,15 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
-        <v>24</v>
-      </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="72"/>
+        <v>23</v>
+      </c>
+      <c r="E30" s="78" t="s">
+        <v>589</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>594</v>
+      </c>
+      <c r="G30" s="20"/>
       <c r="H30" s="74"/>
       <c r="K30" s="66"/>
       <c r="M30" s="66"/>
@@ -10204,18 +10217,11 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
-        <v>25</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="E31" s="103" t="s">
-        <v>555</v>
-      </c>
-      <c r="F31" s="103" t="s">
-        <v>579</v>
-      </c>
-      <c r="G31" s="111"/>
+        <v>24</v>
+      </c>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="74"/>
       <c r="K31" s="66"/>
       <c r="M31" s="66"/>
@@ -10230,16 +10236,19 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
-        <v>26</v>
-      </c>
-      <c r="E32" s="104" t="s">
-        <v>575</v>
-      </c>
-      <c r="F32" s="104" t="s">
-        <v>581</v>
-      </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="71"/>
+        <v>25</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>555</v>
+      </c>
+      <c r="F32" s="77" t="s">
+        <v>579</v>
+      </c>
+      <c r="G32" s="85"/>
+      <c r="H32" s="74"/>
       <c r="K32" s="66"/>
       <c r="M32" s="66"/>
       <c r="Q32" s="40"/>
@@ -10253,13 +10262,13 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
-        <v>27</v>
-      </c>
-      <c r="E33" s="104" t="s">
-        <v>595</v>
-      </c>
-      <c r="F33" s="104" t="s">
-        <v>597</v>
+        <v>26</v>
+      </c>
+      <c r="E33" s="78" t="s">
+        <v>575</v>
+      </c>
+      <c r="F33" s="78" t="s">
+        <v>581</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="71"/>
@@ -10276,15 +10285,15 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
-        <v>28</v>
-      </c>
-      <c r="E34" s="105" t="s">
-        <v>596</v>
-      </c>
-      <c r="F34" s="105" t="s">
-        <v>598</v>
-      </c>
-      <c r="G34" s="112"/>
+        <v>27</v>
+      </c>
+      <c r="E34" s="78" t="s">
+        <v>595</v>
+      </c>
+      <c r="F34" s="78" t="s">
+        <v>597</v>
+      </c>
+      <c r="G34" s="20"/>
       <c r="H34" s="71"/>
       <c r="K34" s="66"/>
       <c r="M34" s="66"/>
@@ -10299,11 +10308,16 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
-        <v>29</v>
-      </c>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="E35" s="79" t="s">
+        <v>596</v>
+      </c>
+      <c r="F35" s="79" t="s">
+        <v>598</v>
+      </c>
+      <c r="G35" s="86"/>
+      <c r="H35" s="71"/>
       <c r="K35" s="66"/>
       <c r="M35" s="66"/>
       <c r="Q35" s="40"/>
@@ -10317,18 +10331,11 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
-        <v>30</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="E36" s="103" t="s">
-        <v>555</v>
-      </c>
-      <c r="F36" s="103" t="s">
-        <v>579</v>
-      </c>
-      <c r="G36" s="111"/>
+        <v>29</v>
+      </c>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="20"/>
       <c r="K36" s="66"/>
       <c r="M36" s="66"/>
       <c r="Q36" s="40"/>
@@ -10342,15 +10349,18 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
-        <v>31</v>
-      </c>
-      <c r="E37" s="104" t="s">
-        <v>575</v>
-      </c>
-      <c r="F37" s="104" t="s">
-        <v>581</v>
-      </c>
-      <c r="G37" s="20"/>
+        <v>30</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="E37" s="77" t="s">
+        <v>555</v>
+      </c>
+      <c r="F37" s="77" t="s">
+        <v>579</v>
+      </c>
+      <c r="G37" s="85"/>
       <c r="K37" s="66"/>
       <c r="M37" s="66"/>
       <c r="Q37" s="40"/>
@@ -10364,13 +10374,13 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
-        <v>32</v>
-      </c>
-      <c r="E38" s="104" t="s">
-        <v>595</v>
-      </c>
-      <c r="F38" s="104" t="s">
-        <v>597</v>
+        <v>31</v>
+      </c>
+      <c r="E38" s="78" t="s">
+        <v>575</v>
+      </c>
+      <c r="F38" s="78" t="s">
+        <v>581</v>
       </c>
       <c r="G38" s="20"/>
       <c r="K38" s="66"/>
@@ -10386,14 +10396,15 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
-        <v>33</v>
-      </c>
-      <c r="E39" s="116" t="s">
-        <v>604</v>
-      </c>
-      <c r="F39" s="109" t="s">
-        <v>606</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E39" s="78" t="s">
+        <v>595</v>
+      </c>
+      <c r="F39" s="78" t="s">
+        <v>597</v>
+      </c>
+      <c r="G39" s="20"/>
       <c r="K39" s="66"/>
       <c r="M39" s="66"/>
       <c r="Q39" s="40"/>
@@ -10407,13 +10418,13 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
-        <v>34</v>
-      </c>
-      <c r="E40" s="108" t="s">
-        <v>605</v>
-      </c>
-      <c r="F40" s="109" t="s">
-        <v>607</v>
+        <v>33</v>
+      </c>
+      <c r="E40" s="90" t="s">
+        <v>604</v>
+      </c>
+      <c r="F40" s="83" t="s">
+        <v>606</v>
       </c>
       <c r="K40" s="66"/>
       <c r="M40" s="66"/>
@@ -10428,15 +10439,14 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
-        <v>35</v>
-      </c>
-      <c r="E41" s="105" t="s">
-        <v>596</v>
-      </c>
-      <c r="F41" s="105" t="s">
-        <v>598</v>
-      </c>
-      <c r="G41" s="112"/>
+        <v>34</v>
+      </c>
+      <c r="E41" s="82" t="s">
+        <v>605</v>
+      </c>
+      <c r="F41" s="83" t="s">
+        <v>607</v>
+      </c>
       <c r="K41" s="66"/>
       <c r="M41" s="66"/>
       <c r="Q41" s="40"/>
@@ -10450,11 +10460,15 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
-        <v>36</v>
-      </c>
-      <c r="E42" s="110"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="69"/>
+        <v>35</v>
+      </c>
+      <c r="E42" s="79" t="s">
+        <v>596</v>
+      </c>
+      <c r="F42" s="79" t="s">
+        <v>598</v>
+      </c>
+      <c r="G42" s="86"/>
       <c r="K42" s="66"/>
       <c r="M42" s="66"/>
       <c r="Q42" s="40"/>
@@ -10468,9 +10482,9 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
-        <v>37</v>
-      </c>
-      <c r="E43" s="110"/>
+        <v>36</v>
+      </c>
+      <c r="E43" s="84"/>
       <c r="F43" s="70"/>
       <c r="G43" s="69"/>
       <c r="K43" s="66"/>
@@ -10486,9 +10500,9 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
-        <v>38</v>
-      </c>
-      <c r="E44" s="110"/>
+        <v>37</v>
+      </c>
+      <c r="E44" s="84"/>
       <c r="F44" s="70"/>
       <c r="G44" s="69"/>
       <c r="K44" s="66"/>
@@ -10504,9 +10518,9 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
-        <v>39</v>
-      </c>
-      <c r="E45" s="110"/>
+        <v>38</v>
+      </c>
+      <c r="E45" s="84"/>
       <c r="F45" s="70"/>
       <c r="G45" s="69"/>
       <c r="K45" s="66"/>
@@ -10522,9 +10536,9 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
-        <v>40</v>
-      </c>
-      <c r="E46" s="110"/>
+        <v>39</v>
+      </c>
+      <c r="E46" s="84"/>
       <c r="F46" s="70"/>
       <c r="G46" s="69"/>
       <c r="K46" s="66"/>
@@ -10540,9 +10554,9 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
-        <v>41</v>
-      </c>
-      <c r="E47" s="110"/>
+        <v>40</v>
+      </c>
+      <c r="E47" s="84"/>
       <c r="F47" s="70"/>
       <c r="G47" s="69"/>
       <c r="K47" s="66"/>
@@ -10558,9 +10572,9 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
-        <v>42</v>
-      </c>
-      <c r="E48" s="110"/>
+        <v>41</v>
+      </c>
+      <c r="E48" s="84"/>
       <c r="F48" s="70"/>
       <c r="G48" s="69"/>
       <c r="K48" s="66"/>
@@ -10576,9 +10590,9 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
-        <v>43</v>
-      </c>
-      <c r="E49" s="110"/>
+        <v>42</v>
+      </c>
+      <c r="E49" s="84"/>
       <c r="F49" s="70"/>
       <c r="G49" s="69"/>
       <c r="K49" s="66"/>
@@ -10594,8 +10608,13 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E50" s="84"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="69"/>
+      <c r="K50" s="66"/>
+      <c r="M50" s="66"/>
       <c r="Q50" s="40"/>
       <c r="R50" s="40"/>
       <c r="S50" s="40"/>
@@ -10607,7 +10626,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q51" s="40"/>
       <c r="R51" s="40"/>
@@ -10620,13 +10639,8 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="20">
-        <v>46</v>
-      </c>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="69"/>
-      <c r="K52" s="66"/>
-      <c r="M52" s="66"/>
+        <v>45</v>
+      </c>
       <c r="Q52" s="40"/>
       <c r="R52" s="40"/>
       <c r="S52" s="40"/>
@@ -10638,7 +10652,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="20">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E53" s="70"/>
       <c r="F53" s="70"/>
@@ -10656,7 +10670,7 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="20">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E54" s="70"/>
       <c r="F54" s="70"/>
@@ -10674,7 +10688,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="20">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E55" s="70"/>
       <c r="F55" s="70"/>
@@ -10692,7 +10706,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E56" s="70"/>
       <c r="F56" s="70"/>
@@ -10710,7 +10724,7 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="20">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E57" s="70"/>
       <c r="F57" s="70"/>
@@ -10728,7 +10742,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="20">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E58" s="70"/>
       <c r="F58" s="70"/>
@@ -10746,7 +10760,7 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="20">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E59" s="70"/>
       <c r="F59" s="70"/>
@@ -10764,7 +10778,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="20">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E60" s="70"/>
       <c r="F60" s="70"/>
@@ -10782,7 +10796,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E61" s="70"/>
       <c r="F61" s="70"/>
@@ -10800,8 +10814,13 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="20">
-        <v>56</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="69"/>
+      <c r="K62" s="66"/>
+      <c r="M62" s="66"/>
       <c r="Q62" s="40"/>
       <c r="R62" s="40"/>
       <c r="S62" s="40"/>
@@ -10813,7 +10832,7 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q63" s="40"/>
       <c r="R63" s="40"/>
@@ -10826,7 +10845,7 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="20">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q64" s="40"/>
       <c r="R64" s="40"/>
@@ -10839,7 +10858,7 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="20">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q65" s="40"/>
       <c r="R65" s="40"/>
@@ -10852,7 +10871,7 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="20">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q66" s="40"/>
       <c r="R66" s="40"/>
@@ -10865,13 +10884,8 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="20">
-        <v>61</v>
-      </c>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="69"/>
-      <c r="K67" s="66"/>
-      <c r="M67" s="66"/>
+        <v>60</v>
+      </c>
       <c r="Q67" s="40"/>
       <c r="R67" s="40"/>
       <c r="S67" s="40"/>
@@ -10883,7 +10897,7 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="20">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E68" s="70"/>
       <c r="F68" s="70"/>
@@ -10901,7 +10915,7 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="20">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E69" s="70"/>
       <c r="F69" s="70"/>
@@ -10919,7 +10933,7 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E70" s="70"/>
       <c r="F70" s="70"/>
@@ -10937,7 +10951,7 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E71" s="70"/>
       <c r="F71" s="70"/>
@@ -10955,7 +10969,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="20">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E72" s="70"/>
       <c r="F72" s="70"/>
@@ -10973,7 +10987,7 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E73" s="70"/>
       <c r="F73" s="70"/>
@@ -10991,8 +11005,13 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="20">
-        <v>68</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="69"/>
+      <c r="K74" s="66"/>
+      <c r="M74" s="66"/>
       <c r="Q74" s="40"/>
       <c r="R74" s="40"/>
       <c r="S74" s="40"/>
@@ -11004,7 +11023,7 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q75" s="40"/>
       <c r="R75" s="40"/>
@@ -11017,7 +11036,7 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q76" s="40"/>
       <c r="R76" s="40"/>
@@ -11030,13 +11049,8 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
-        <v>71</v>
-      </c>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="69"/>
-      <c r="K77" s="66"/>
-      <c r="M77" s="66"/>
+        <v>70</v>
+      </c>
       <c r="Q77" s="40"/>
       <c r="R77" s="40"/>
       <c r="S77" s="40"/>
@@ -11048,7 +11062,7 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E78" s="70"/>
       <c r="F78" s="70"/>
@@ -11066,7 +11080,7 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E79" s="70"/>
       <c r="F79" s="70"/>
@@ -11084,7 +11098,7 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E80" s="70"/>
       <c r="F80" s="70"/>
@@ -11102,7 +11116,7 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E81" s="70"/>
       <c r="F81" s="70"/>
@@ -11120,7 +11134,7 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E82" s="70"/>
       <c r="F82" s="70"/>
@@ -11138,7 +11152,7 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E83" s="70"/>
       <c r="F83" s="70"/>
@@ -11156,7 +11170,7 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E84" s="70"/>
       <c r="F84" s="70"/>
@@ -11174,7 +11188,7 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E85" s="70"/>
       <c r="F85" s="70"/>
@@ -11192,7 +11206,7 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="20">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E86" s="70"/>
       <c r="F86" s="70"/>
@@ -11210,7 +11224,7 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="20">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E87" s="70"/>
       <c r="F87" s="70"/>
@@ -11228,7 +11242,7 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="20">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E88" s="70"/>
       <c r="F88" s="70"/>
@@ -11246,7 +11260,7 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="20">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E89" s="70"/>
       <c r="F89" s="70"/>
@@ -11264,7 +11278,7 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E90" s="70"/>
       <c r="F90" s="70"/>
@@ -11282,7 +11296,7 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E91" s="70"/>
       <c r="F91" s="70"/>
@@ -11300,7 +11314,7 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="20">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E92" s="70"/>
       <c r="F92" s="70"/>
@@ -11318,7 +11332,7 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="20">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E93" s="70"/>
       <c r="F93" s="70"/>
@@ -11336,7 +11350,7 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="20">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E94" s="70"/>
       <c r="F94" s="70"/>
@@ -11354,8 +11368,13 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="20">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E95" s="70"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="69"/>
+      <c r="K95" s="66"/>
+      <c r="M95" s="66"/>
       <c r="Q95" s="40"/>
       <c r="R95" s="40"/>
       <c r="S95" s="40"/>
@@ -11367,7 +11386,7 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="20">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q96" s="40"/>
       <c r="R96" s="40"/>
@@ -11380,7 +11399,7 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q97" s="40"/>
       <c r="R97" s="40"/>
@@ -11393,7 +11412,7 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="40"/>
       <c r="R98" s="40"/>
@@ -11406,7 +11425,7 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="20">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q99" s="40"/>
       <c r="R99" s="40"/>
@@ -11419,7 +11438,7 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q100" s="40"/>
       <c r="R100" s="40"/>
@@ -11432,7 +11451,7 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" s="20">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q101" s="40"/>
       <c r="R101" s="40"/>
@@ -11445,7 +11464,7 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" s="20">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q102" s="40"/>
       <c r="R102" s="40"/>
@@ -11458,7 +11477,7 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" s="20">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q103" s="40"/>
       <c r="R103" s="40"/>
@@ -11471,7 +11490,7 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" s="20">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q104" s="40"/>
       <c r="R104" s="40"/>
@@ -11484,7 +11503,7 @@
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" s="20">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q105" s="40"/>
       <c r="R105" s="40"/>
@@ -11497,7 +11516,7 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" s="20">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q106" s="40"/>
       <c r="R106" s="40"/>
@@ -11510,7 +11529,7 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="20">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q107" s="40"/>
       <c r="R107" s="40"/>
@@ -11523,7 +11542,7 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" s="20">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q108" s="40"/>
       <c r="R108" s="40"/>
@@ -11536,7 +11555,7 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" s="20">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q109" s="40"/>
       <c r="R109" s="40"/>
@@ -11549,7 +11568,7 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" s="20">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q110" s="40"/>
       <c r="R110" s="40"/>
@@ -11562,7 +11581,7 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" s="20">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q111" s="40"/>
       <c r="R111" s="40"/>
@@ -11575,7 +11594,7 @@
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q112" s="40"/>
       <c r="R112" s="40"/>
@@ -11588,7 +11607,7 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q113" s="40"/>
       <c r="R113" s="40"/>
@@ -11601,7 +11620,7 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q114" s="40"/>
       <c r="R114" s="40"/>
@@ -11614,7 +11633,7 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q115" s="40"/>
       <c r="R115" s="40"/>
@@ -11627,7 +11646,7 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q116" s="40"/>
       <c r="R116" s="40"/>
@@ -11640,7 +11659,7 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" s="20">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q117" s="40"/>
       <c r="R117" s="40"/>
@@ -11653,7 +11672,7 @@
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q118" s="40"/>
       <c r="R118" s="40"/>
@@ -11666,7 +11685,7 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119" s="20">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q119" s="40"/>
       <c r="R119" s="40"/>
@@ -11679,7 +11698,7 @@
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120" s="20">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q120" s="40"/>
       <c r="R120" s="40"/>
@@ -11692,7 +11711,7 @@
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121" s="20">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q121" s="40"/>
       <c r="R121" s="40"/>
@@ -11705,7 +11724,7 @@
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122" s="20">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q122" s="40"/>
       <c r="R122" s="40"/>
@@ -11718,7 +11737,7 @@
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123" s="20">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q123" s="40"/>
       <c r="R123" s="40"/>
@@ -11731,7 +11750,7 @@
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124" s="20">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q124" s="40"/>
       <c r="R124" s="40"/>
@@ -11744,7 +11763,7 @@
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="20">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q125" s="40"/>
       <c r="R125" s="40"/>
@@ -11757,7 +11776,7 @@
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="20">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q126" s="40"/>
       <c r="R126" s="40"/>
@@ -11770,7 +11789,7 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" s="20">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q127" s="40"/>
       <c r="R127" s="40"/>
@@ -11783,7 +11802,7 @@
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" s="20">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q128" s="40"/>
       <c r="R128" s="40"/>
@@ -11796,7 +11815,7 @@
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129" s="20">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q129" s="40"/>
       <c r="R129" s="40"/>
@@ -11809,7 +11828,7 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130" s="20">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q130" s="40"/>
       <c r="R130" s="40"/>
@@ -11822,7 +11841,7 @@
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131" s="20">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q131" s="40"/>
       <c r="R131" s="40"/>
@@ -11835,7 +11854,7 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132" s="20">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q132" s="40"/>
       <c r="R132" s="40"/>
@@ -11848,7 +11867,7 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A133" s="20">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q133" s="40"/>
       <c r="R133" s="40"/>
@@ -11861,7 +11880,7 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A134" s="20">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q134" s="40"/>
       <c r="R134" s="40"/>
@@ -11874,7 +11893,7 @@
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A135" s="20">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q135" s="40"/>
       <c r="R135" s="40"/>
@@ -11887,7 +11906,7 @@
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A136" s="20">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q136" s="40"/>
       <c r="R136" s="40"/>
@@ -11900,7 +11919,7 @@
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A137" s="20">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q137" s="40"/>
       <c r="R137" s="40"/>
@@ -11913,7 +11932,7 @@
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138" s="20">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q138" s="40"/>
       <c r="R138" s="40"/>
@@ -11926,7 +11945,7 @@
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A139" s="20">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q139" s="40"/>
       <c r="R139" s="40"/>
@@ -11939,7 +11958,7 @@
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A140" s="20">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q140" s="40"/>
       <c r="R140" s="40"/>
@@ -11952,7 +11971,7 @@
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A141" s="20">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q141" s="40"/>
       <c r="R141" s="40"/>
@@ -11965,7 +11984,7 @@
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A142" s="20">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q142" s="40"/>
       <c r="R142" s="40"/>
@@ -11978,7 +11997,7 @@
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A143" s="20">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q143" s="40"/>
       <c r="R143" s="40"/>
@@ -11991,7 +12010,7 @@
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A144" s="20">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q144" s="40"/>
       <c r="R144" s="40"/>
@@ -12004,7 +12023,7 @@
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A145" s="20">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q145" s="40"/>
       <c r="R145" s="40"/>
@@ -12017,7 +12036,7 @@
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A146" s="20">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q146" s="40"/>
       <c r="R146" s="40"/>
@@ -12030,7 +12049,7 @@
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A147" s="20">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q147" s="40"/>
       <c r="R147" s="40"/>
@@ -12043,7 +12062,7 @@
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148" s="20">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q148" s="40"/>
       <c r="R148" s="40"/>
@@ -12056,7 +12075,7 @@
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A149" s="20">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q149" s="40"/>
       <c r="R149" s="40"/>
@@ -12069,7 +12088,7 @@
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A150" s="20">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q150" s="40"/>
       <c r="R150" s="40"/>
@@ -12082,7 +12101,7 @@
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A151" s="20">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q151" s="40"/>
       <c r="R151" s="40"/>
@@ -12095,7 +12114,7 @@
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A152" s="20">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q152" s="40"/>
       <c r="R152" s="40"/>
@@ -12108,7 +12127,7 @@
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A153" s="20">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q153" s="40"/>
       <c r="R153" s="40"/>
@@ -12121,7 +12140,7 @@
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A154" s="20">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q154" s="40"/>
       <c r="R154" s="40"/>
@@ -12134,7 +12153,7 @@
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A155" s="20">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q155" s="40"/>
       <c r="R155" s="40"/>
@@ -12147,7 +12166,7 @@
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A156" s="20">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q156" s="40"/>
       <c r="R156" s="40"/>
@@ -12160,7 +12179,7 @@
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A157" s="20">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q157" s="40"/>
       <c r="R157" s="40"/>
@@ -12173,7 +12192,7 @@
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A158" s="20">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q158" s="40"/>
       <c r="R158" s="40"/>
@@ -12186,7 +12205,7 @@
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A159" s="20">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q159" s="40"/>
       <c r="R159" s="40"/>
@@ -12199,7 +12218,7 @@
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A160" s="20">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q160" s="40"/>
       <c r="R160" s="40"/>
@@ -12212,7 +12231,7 @@
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A161" s="20">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q161" s="40"/>
       <c r="R161" s="40"/>
@@ -12225,7 +12244,7 @@
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A162" s="20">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q162" s="40"/>
       <c r="R162" s="40"/>
@@ -12238,7 +12257,7 @@
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A163" s="20">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q163" s="40"/>
       <c r="R163" s="40"/>
@@ -12251,7 +12270,7 @@
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A164" s="20">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q164" s="40"/>
       <c r="R164" s="40"/>
@@ -12264,7 +12283,7 @@
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A165" s="20">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q165" s="40"/>
       <c r="R165" s="40"/>
@@ -12277,7 +12296,7 @@
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A166" s="20">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q166" s="40"/>
       <c r="R166" s="40"/>
@@ -12290,7 +12309,7 @@
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A167" s="20">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q167" s="40"/>
       <c r="R167" s="40"/>
@@ -12303,7 +12322,7 @@
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A168" s="20">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q168" s="40"/>
       <c r="R168" s="40"/>
@@ -12316,7 +12335,7 @@
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A169" s="20">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q169" s="40"/>
       <c r="R169" s="40"/>
@@ -12329,7 +12348,7 @@
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A170" s="20">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q170" s="40"/>
       <c r="R170" s="40"/>
@@ -12342,7 +12361,7 @@
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A171" s="20">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q171" s="40"/>
       <c r="R171" s="40"/>
@@ -12355,7 +12374,7 @@
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A172" s="20">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q172" s="40"/>
       <c r="R172" s="40"/>
@@ -12368,7 +12387,7 @@
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A173" s="20">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q173" s="40"/>
       <c r="R173" s="40"/>
@@ -12381,7 +12400,7 @@
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A174" s="20">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q174" s="40"/>
       <c r="R174" s="40"/>
@@ -12394,7 +12413,7 @@
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A175" s="20">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q175" s="40"/>
       <c r="R175" s="40"/>
@@ -12407,7 +12426,7 @@
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A176" s="20">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q176" s="40"/>
       <c r="R176" s="40"/>
@@ -12420,7 +12439,7 @@
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A177" s="20">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q177" s="40"/>
       <c r="R177" s="40"/>
@@ -12433,7 +12452,7 @@
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178" s="20">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q178" s="40"/>
       <c r="R178" s="40"/>
@@ -12446,7 +12465,7 @@
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A179" s="20">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q179" s="40"/>
       <c r="R179" s="40"/>
@@ -12459,7 +12478,7 @@
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A180" s="20">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q180" s="40"/>
       <c r="R180" s="40"/>
@@ -12472,7 +12491,7 @@
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A181" s="20">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q181" s="40"/>
       <c r="R181" s="40"/>
@@ -12485,7 +12504,7 @@
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A182" s="20">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q182" s="40"/>
       <c r="R182" s="40"/>
@@ -12498,7 +12517,7 @@
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A183" s="20">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q183" s="40"/>
       <c r="R183" s="40"/>
@@ -12511,7 +12530,7 @@
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A184" s="20">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q184" s="40"/>
       <c r="R184" s="40"/>
@@ -12524,7 +12543,7 @@
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A185" s="20">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q185" s="40"/>
       <c r="R185" s="40"/>
@@ -12537,7 +12556,7 @@
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A186" s="20">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q186" s="40"/>
       <c r="R186" s="40"/>
@@ -12550,7 +12569,7 @@
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A187" s="20">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q187" s="40"/>
       <c r="R187" s="40"/>
@@ -12563,7 +12582,7 @@
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A188" s="20">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q188" s="40"/>
       <c r="R188" s="40"/>
@@ -12576,7 +12595,7 @@
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A189" s="20">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q189" s="40"/>
       <c r="R189" s="40"/>
@@ -12589,7 +12608,7 @@
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A190" s="20">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q190" s="40"/>
       <c r="R190" s="40"/>
@@ -12602,7 +12621,7 @@
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A191" s="20">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q191" s="40"/>
       <c r="R191" s="40"/>
@@ -12615,7 +12634,7 @@
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A192" s="20">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q192" s="40"/>
       <c r="R192" s="40"/>
@@ -12628,7 +12647,7 @@
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A193" s="20">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q193" s="40"/>
       <c r="R193" s="40"/>
@@ -12641,7 +12660,7 @@
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A194" s="20">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q194" s="40"/>
       <c r="R194" s="40"/>
@@ -12654,7 +12673,7 @@
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A195" s="20">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q195" s="40"/>
       <c r="R195" s="40"/>
@@ -12667,7 +12686,7 @@
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A196" s="20">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q196" s="40"/>
       <c r="R196" s="40"/>
@@ -12680,7 +12699,7 @@
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A197" s="20">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q197" s="40"/>
       <c r="R197" s="40"/>
@@ -12693,7 +12712,7 @@
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A198" s="20">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q198" s="40"/>
       <c r="R198" s="40"/>
@@ -12706,7 +12725,7 @@
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A199" s="20">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q199" s="40"/>
       <c r="R199" s="40"/>
@@ -12719,7 +12738,7 @@
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A200" s="20">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q200" s="40"/>
       <c r="R200" s="40"/>
@@ -12732,7 +12751,7 @@
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A201" s="20">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q201" s="40"/>
       <c r="R201" s="40"/>
@@ -12745,7 +12764,7 @@
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A202" s="20">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q202" s="40"/>
       <c r="R202" s="40"/>
@@ -12758,7 +12777,7 @@
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A203" s="20">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q203" s="40"/>
       <c r="R203" s="40"/>
@@ -12771,7 +12790,7 @@
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A204" s="20">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q204" s="40"/>
       <c r="R204" s="40"/>
@@ -12784,7 +12803,7 @@
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A205" s="20">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q205" s="40"/>
       <c r="R205" s="40"/>
@@ -12797,7 +12816,7 @@
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A206" s="20">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q206" s="40"/>
       <c r="R206" s="40"/>
@@ -12810,7 +12829,7 @@
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A207" s="20">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q207" s="40"/>
       <c r="R207" s="40"/>
@@ -12823,7 +12842,7 @@
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A208" s="20">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q208" s="40"/>
       <c r="R208" s="40"/>
@@ -12836,7 +12855,7 @@
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A209" s="20">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q209" s="40"/>
       <c r="R209" s="40"/>
@@ -12849,7 +12868,7 @@
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A210" s="20">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q210" s="40"/>
       <c r="R210" s="40"/>
@@ -12862,7 +12881,7 @@
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A211" s="20">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q211" s="40"/>
       <c r="R211" s="40"/>
@@ -12875,7 +12894,7 @@
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A212" s="20">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q212" s="40"/>
       <c r="R212" s="40"/>
@@ -12888,7 +12907,7 @@
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A213" s="20">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q213" s="40"/>
       <c r="R213" s="40"/>
@@ -12901,7 +12920,7 @@
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A214" s="20">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q214" s="40"/>
       <c r="R214" s="40"/>
@@ -12914,7 +12933,7 @@
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A215" s="20">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q215" s="40"/>
       <c r="R215" s="40"/>
@@ -12927,7 +12946,7 @@
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A216" s="20">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q216" s="40"/>
       <c r="R216" s="40"/>
@@ -12940,7 +12959,7 @@
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A217" s="20">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q217" s="40"/>
       <c r="R217" s="40"/>
@@ -12953,7 +12972,7 @@
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A218" s="20">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q218" s="40"/>
       <c r="R218" s="40"/>
@@ -12966,7 +12985,7 @@
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A219" s="20">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q219" s="40"/>
       <c r="R219" s="40"/>
@@ -12979,7 +12998,7 @@
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A220" s="20">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q220" s="40"/>
       <c r="R220" s="40"/>
@@ -12992,7 +13011,7 @@
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A221" s="20">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q221" s="40"/>
       <c r="R221" s="40"/>
@@ -13005,7 +13024,7 @@
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A222" s="20">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q222" s="40"/>
       <c r="R222" s="40"/>
@@ -13018,7 +13037,7 @@
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A223" s="20">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q223" s="40"/>
       <c r="R223" s="40"/>
@@ -13031,7 +13050,7 @@
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A224" s="20">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q224" s="40"/>
       <c r="R224" s="40"/>
@@ -13044,7 +13063,7 @@
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A225" s="20">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q225" s="40"/>
       <c r="R225" s="40"/>
@@ -13057,7 +13076,7 @@
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A226" s="20">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q226" s="40"/>
       <c r="R226" s="40"/>
@@ -13070,7 +13089,7 @@
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A227" s="20">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q227" s="40"/>
       <c r="R227" s="40"/>
@@ -13083,7 +13102,7 @@
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A228" s="20">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q228" s="40"/>
       <c r="R228" s="40"/>
@@ -13096,7 +13115,7 @@
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A229" s="20">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q229" s="40"/>
       <c r="R229" s="40"/>
@@ -13109,7 +13128,7 @@
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A230" s="20">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q230" s="40"/>
       <c r="R230" s="40"/>
@@ -13122,7 +13141,7 @@
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A231" s="20">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q231" s="40"/>
       <c r="R231" s="40"/>
@@ -13135,7 +13154,7 @@
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A232" s="20">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q232" s="40"/>
       <c r="R232" s="40"/>
@@ -13148,7 +13167,7 @@
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A233" s="20">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q233" s="40"/>
       <c r="R233" s="40"/>
@@ -13161,7 +13180,7 @@
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A234" s="20">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q234" s="40"/>
       <c r="R234" s="40"/>
@@ -13174,7 +13193,7 @@
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A235" s="20">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q235" s="40"/>
       <c r="R235" s="40"/>
@@ -13187,7 +13206,7 @@
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A236" s="20">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q236" s="40"/>
       <c r="R236" s="40"/>
@@ -13200,7 +13219,7 @@
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A237" s="20">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q237" s="40"/>
       <c r="R237" s="40"/>
@@ -13213,7 +13232,7 @@
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A238" s="20">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q238" s="40"/>
       <c r="R238" s="40"/>
@@ -13226,7 +13245,7 @@
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A239" s="20">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q239" s="40"/>
       <c r="R239" s="40"/>
@@ -13239,7 +13258,7 @@
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A240" s="20">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q240" s="40"/>
       <c r="R240" s="40"/>
@@ -13252,7 +13271,7 @@
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A241" s="20">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q241" s="40"/>
       <c r="R241" s="40"/>
@@ -13265,7 +13284,7 @@
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A242" s="20">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q242" s="40"/>
       <c r="R242" s="40"/>
@@ -13278,7 +13297,7 @@
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A243" s="20">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q243" s="40"/>
       <c r="R243" s="40"/>
@@ -13291,7 +13310,7 @@
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A244" s="20">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q244" s="40"/>
       <c r="R244" s="40"/>
@@ -13304,7 +13323,7 @@
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A245" s="20">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q245" s="40"/>
       <c r="R245" s="40"/>
@@ -13317,7 +13336,7 @@
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A246" s="20">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q246" s="40"/>
       <c r="R246" s="40"/>
@@ -13330,7 +13349,7 @@
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A247" s="20">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q247" s="40"/>
       <c r="R247" s="40"/>
@@ -13343,7 +13362,7 @@
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A248" s="20">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q248" s="40"/>
       <c r="R248" s="40"/>
@@ -13356,7 +13375,7 @@
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A249" s="20">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q249" s="40"/>
       <c r="R249" s="40"/>
@@ -13369,7 +13388,7 @@
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A250" s="20">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q250" s="40"/>
       <c r="R250" s="40"/>
@@ -13382,7 +13401,7 @@
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A251" s="20">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q251" s="40"/>
       <c r="R251" s="40"/>
@@ -13395,7 +13414,7 @@
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A252" s="20">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q252" s="40"/>
       <c r="R252" s="40"/>
@@ -13408,7 +13427,7 @@
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A253" s="20">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q253" s="40"/>
       <c r="R253" s="40"/>
@@ -13421,7 +13440,7 @@
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A254" s="20">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q254" s="40"/>
       <c r="R254" s="40"/>
@@ -13434,7 +13453,7 @@
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A255" s="20">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q255" s="40"/>
       <c r="R255" s="40"/>
@@ -13447,7 +13466,7 @@
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A256" s="20">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q256" s="40"/>
       <c r="R256" s="40"/>
@@ -13460,7 +13479,7 @@
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A257" s="20">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q257" s="40"/>
       <c r="R257" s="40"/>
@@ -13473,7 +13492,7 @@
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A258" s="20">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q258" s="40"/>
       <c r="R258" s="40"/>
@@ -13486,7 +13505,7 @@
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A259" s="20">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q259" s="40"/>
       <c r="R259" s="40"/>
@@ -13499,7 +13518,7 @@
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A260" s="20">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q260" s="40"/>
       <c r="R260" s="40"/>
@@ -13512,7 +13531,7 @@
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A261" s="20">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q261" s="40"/>
       <c r="R261" s="40"/>
@@ -13525,7 +13544,7 @@
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A262" s="20">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q262" s="40"/>
       <c r="R262" s="40"/>
@@ -13538,7 +13557,7 @@
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A263" s="20">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q263" s="40"/>
       <c r="R263" s="40"/>
@@ -13551,7 +13570,7 @@
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A264" s="20">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q264" s="40"/>
       <c r="R264" s="40"/>
@@ -13564,7 +13583,7 @@
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A265" s="20">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q265" s="40"/>
       <c r="R265" s="40"/>
@@ -13577,7 +13596,7 @@
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A266" s="20">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q266" s="40"/>
       <c r="R266" s="40"/>
@@ -13590,7 +13609,7 @@
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A267" s="20">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q267" s="40"/>
       <c r="R267" s="40"/>
@@ -13603,7 +13622,7 @@
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A268" s="20">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q268" s="40"/>
       <c r="R268" s="40"/>
@@ -13616,7 +13635,7 @@
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A269" s="20">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q269" s="40"/>
       <c r="R269" s="40"/>
@@ -13629,7 +13648,7 @@
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A270" s="20">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q270" s="40"/>
       <c r="R270" s="40"/>
@@ -13642,7 +13661,7 @@
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A271" s="20">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q271" s="40"/>
       <c r="R271" s="40"/>
@@ -13655,7 +13674,7 @@
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A272" s="20">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q272" s="40"/>
       <c r="R272" s="40"/>
@@ -13668,7 +13687,7 @@
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A273" s="20">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q273" s="40"/>
       <c r="R273" s="40"/>
@@ -13681,7 +13700,7 @@
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A274" s="20">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q274" s="40"/>
       <c r="R274" s="40"/>
@@ -13694,7 +13713,7 @@
     </row>
     <row r="275" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A275" s="20">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q275" s="40"/>
       <c r="R275" s="40"/>
@@ -13707,7 +13726,7 @@
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A276" s="20">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q276" s="40"/>
       <c r="R276" s="40"/>
@@ -13720,7 +13739,7 @@
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A277" s="20">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q277" s="40"/>
       <c r="R277" s="40"/>
@@ -13733,7 +13752,7 @@
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A278" s="20">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q278" s="40"/>
       <c r="R278" s="40"/>
@@ -13746,7 +13765,7 @@
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A279" s="20">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q279" s="40"/>
       <c r="R279" s="40"/>
@@ -13759,7 +13778,7 @@
     </row>
     <row r="280" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A280" s="20">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q280" s="40"/>
       <c r="R280" s="40"/>
@@ -13772,7 +13791,7 @@
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A281" s="20">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q281" s="40"/>
       <c r="R281" s="40"/>
@@ -13785,7 +13804,7 @@
     </row>
     <row r="282" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A282" s="20">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q282" s="40"/>
       <c r="R282" s="40"/>
@@ -13798,7 +13817,7 @@
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A283" s="20">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q283" s="40"/>
       <c r="R283" s="40"/>
@@ -13811,7 +13830,7 @@
     </row>
     <row r="284" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A284" s="20">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q284" s="40"/>
       <c r="R284" s="40"/>
@@ -13824,7 +13843,7 @@
     </row>
     <row r="285" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A285" s="20">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q285" s="40"/>
       <c r="R285" s="40"/>
@@ -13837,7 +13856,7 @@
     </row>
     <row r="286" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A286" s="20">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q286" s="40"/>
       <c r="R286" s="40"/>
@@ -13850,7 +13869,7 @@
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A287" s="20">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q287" s="40"/>
       <c r="R287" s="40"/>
@@ -13863,7 +13882,7 @@
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A288" s="20">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q288" s="40"/>
       <c r="R288" s="40"/>
@@ -13876,7 +13895,7 @@
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A289" s="20">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q289" s="40"/>
       <c r="R289" s="40"/>
@@ -13889,7 +13908,7 @@
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A290" s="20">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q290" s="40"/>
       <c r="R290" s="40"/>
@@ -13902,7 +13921,7 @@
     </row>
     <row r="291" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A291" s="20">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q291" s="40"/>
       <c r="R291" s="40"/>
@@ -13915,7 +13934,7 @@
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A292" s="20">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q292" s="40"/>
       <c r="R292" s="40"/>
@@ -13928,7 +13947,7 @@
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A293" s="20">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q293" s="40"/>
       <c r="R293" s="40"/>
@@ -13941,7 +13960,7 @@
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A294" s="20">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q294" s="40"/>
       <c r="R294" s="40"/>
@@ -13954,7 +13973,7 @@
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A295" s="20">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q295" s="40"/>
       <c r="R295" s="40"/>
@@ -13967,7 +13986,7 @@
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A296" s="20">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q296" s="40"/>
       <c r="R296" s="40"/>
@@ -13980,7 +13999,7 @@
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A297" s="20">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q297" s="40"/>
       <c r="R297" s="40"/>
@@ -13993,7 +14012,7 @@
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A298" s="20">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q298" s="40"/>
       <c r="R298" s="40"/>
@@ -14006,7 +14025,7 @@
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A299" s="20">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q299" s="40"/>
       <c r="R299" s="40"/>
@@ -14019,7 +14038,7 @@
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A300" s="20">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q300" s="40"/>
       <c r="R300" s="40"/>
@@ -14032,7 +14051,7 @@
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A301" s="20">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q301" s="40"/>
       <c r="R301" s="40"/>
@@ -14045,7 +14064,7 @@
     </row>
     <row r="302" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A302" s="20">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q302" s="40"/>
       <c r="R302" s="40"/>
@@ -14058,7 +14077,7 @@
     </row>
     <row r="303" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A303" s="20">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q303" s="40"/>
       <c r="R303" s="40"/>
@@ -14071,7 +14090,7 @@
     </row>
     <row r="304" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A304" s="20">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q304" s="40"/>
       <c r="R304" s="40"/>
@@ -14081,6 +14100,19 @@
       <c r="X304" s="39"/>
       <c r="Y304" s="39"/>
       <c r="Z304" s="39"/>
+    </row>
+    <row r="305" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A305" s="20">
+        <v>298</v>
+      </c>
+      <c r="Q305" s="40"/>
+      <c r="R305" s="40"/>
+      <c r="S305" s="40"/>
+      <c r="V305" s="39"/>
+      <c r="W305" s="39"/>
+      <c r="X305" s="39"/>
+      <c r="Y305" s="39"/>
+      <c r="Z305" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -14092,10 +14124,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:U221" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:U222" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>도메인규칙목록</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:Z304" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:Z305" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>업무규칙목록</formula1>
     </dataValidation>
   </dataValidations>
@@ -14113,13 +14145,13 @@
           <x14:formula1>
             <xm:f>도메인규칙_정의서!$A$3:$A$101</xm:f>
           </x14:formula1>
-          <xm:sqref>Q222:S304</xm:sqref>
+          <xm:sqref>Q223:S305</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>도메인규칙_정의서!$B$3:$B$101</xm:f>
           </x14:formula1>
-          <xm:sqref>T222:U304</xm:sqref>
+          <xm:sqref>T223:U305</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14159,44 +14191,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="97" t="s">
+      <c r="C1" s="117"/>
+      <c r="D1" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="97" t="s">
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="97" t="s">
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="98"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="117"/>
     </row>
     <row r="2" spans="1:25" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="96"/>
+      <c r="A2" s="115"/>
       <c r="B2" s="64" t="s">
         <v>69</v>
       </c>
@@ -26594,7 +26626,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="119" t="s">
         <v>137</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -26605,7 +26637,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="101"/>
+      <c r="B25" s="120"/>
       <c r="C25" s="14" t="s">
         <v>398</v>
       </c>
@@ -26614,7 +26646,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="119" t="s">
         <v>364</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -26625,21 +26657,21 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="101"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="14" t="s">
         <v>366</v>
       </c>
       <c r="D27" s="38"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="102"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="14" t="s">
         <v>365</v>
       </c>
       <c r="D28" s="38"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="119" t="s">
         <v>367</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -26650,7 +26682,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="101"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="14" t="s">
         <v>375</v>
       </c>
@@ -26659,7 +26691,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="101"/>
+      <c r="B31" s="120"/>
       <c r="C31" s="14" t="s">
         <v>376</v>
       </c>
@@ -26668,7 +26700,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="101"/>
+      <c r="B32" s="120"/>
       <c r="C32" s="14" t="s">
         <v>399</v>
       </c>
@@ -26677,7 +26709,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="101"/>
+      <c r="B33" s="120"/>
       <c r="C33" s="14" t="s">
         <v>377</v>
       </c>
@@ -26686,7 +26718,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="102"/>
+      <c r="B34" s="121"/>
       <c r="C34" s="14" t="s">
         <v>378</v>
       </c>
